--- a/Обрабатываемые/Опросный лист ПУМ.xlsx
+++ b/Обрабатываемые/Опросный лист ПУМ.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Рабочее\_Журналы\ОЛ с валидацией данных 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Desktop\obrabotka_ol\Обрабатываемые\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Типы и категории мероприятий" sheetId="1" r:id="rId1"/>
     <sheet name="Права персонала" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -724,27 +724,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1057,6 +1036,27 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1087,14 +1087,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A9:M11" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ПУМ" displayName="ПУМ" ref="A9:M11" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A9:M11"/>
   <tableColumns count="13">
-    <tableColumn id="13" name="№" dataDxfId="15"/>
-    <tableColumn id="2" name="Организация" dataDxfId="14"/>
-    <tableColumn id="3" name="Подразделение" dataDxfId="13"/>
-    <tableColumn id="4" name="ФИО" dataDxfId="12"/>
-    <tableColumn id="5" name="Столбец1" dataDxfId="11">
+    <tableColumn id="13" name="№" dataDxfId="12"/>
+    <tableColumn id="2" name="Организация" dataDxfId="11"/>
+    <tableColumn id="3" name="Подразделение" dataDxfId="10"/>
+    <tableColumn id="4" name="ФИО" dataDxfId="9"/>
+    <tableColumn id="5" name="Столбец1" dataDxfId="8">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D10)),
                              IF(LEN(TRIM(D10))-LEN(SUBSTITUTE(TRIM(D10)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D10,FIND(" ",D10)-1))&gt;=2,
@@ -1105,14 +1105,14 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Учетная запись в MS AD" dataDxfId="10"/>
-    <tableColumn id="7" name="Должность" dataDxfId="9"/>
-    <tableColumn id="8" name="Мобильный телефон*" dataDxfId="8"/>
-    <tableColumn id="1" name="Электронная почта*" dataDxfId="7"/>
-    <tableColumn id="9" name="ПУМ. Администрирование" dataDxfId="6"/>
-    <tableColumn id="11" name="ПУМ. Аудит" dataDxfId="5"/>
-    <tableColumn id="10" name="ПУМ. Отмена записей" dataDxfId="4"/>
-    <tableColumn id="12" name="Руководитель мероприятий" dataDxfId="3"/>
+    <tableColumn id="6" name="Учетная запись в MS AD" dataDxfId="7"/>
+    <tableColumn id="7" name="Должность" dataDxfId="6"/>
+    <tableColumn id="8" name="Мобильный телефон*" dataDxfId="5"/>
+    <tableColumn id="1" name="Электронная почта*" dataDxfId="4"/>
+    <tableColumn id="9" name="ПУМ. Администрирование" dataDxfId="3"/>
+    <tableColumn id="11" name="ПУМ. Аудит" dataDxfId="2"/>
+    <tableColumn id="10" name="ПУМ. Отмена записей" dataDxfId="1"/>
+    <tableColumn id="12" name="Руководитель мероприятий" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1593,7 +1593,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,17 +1792,17 @@
     <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="18" priority="2">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
